--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metrics" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,498 +436,264 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>issuer</t>
+          <t>metric_key</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>title</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>loans_bil_usd</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>net_charge_off_rate_pct</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>delinquency_30plus_pct</t>
+          <t>latest_date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>avg_fico_score</t>
+          <t>latest_value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>avg_credit_line_usd</t>
+          <t>avg_10y</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>warn_filings_index</t>
+          <t>sd_10y</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>jolts_job_openings_mil</t>
+          <t>status</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>layoffs_discharges_rate_pct</t>
+          <t>delta_1y_abs</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>accounts_assessed_interest_pct</t>
+          <t>delta_1y_pct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>revolving_credit_total_bil_usd</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>bnpl_usage_index</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>vintage_90dpd_rate_pct</t>
+          <t>source_note</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JPMorgan Chase (Card Services)</t>
+          <t>DRCCLACBS_pct</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>234.4</v>
+          <t>Card 30+ Delinquency</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>7.23</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.457603305785124</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4595974249785601</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>1.1</v>
+        <v>-0.1099999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>-3.559870550161808</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FRED DRCCLACBS (quarterly, %)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bank of America (U.S. Cards)</t>
+          <t>CORCCACBS_pct</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>102</v>
+          <t>Net Charge-off Rate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>7.23</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.378595041322315</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8002853889563799</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>1.1</v>
+        <v>-0.4199999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>-9.15032679738562</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FRED CORCCACBS (quarterly, %)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Citigroup (Branded Cards, USPB)</t>
+          <t>JTSJOL_mil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>117</v>
+          <t>Job Openings</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>7.23</v>
+        <v>-1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.78185950413223</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.798128243092805</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>0.05499999999999972</v>
       </c>
       <c r="K4" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0.7222586999343363</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FRED JTSJOL (monthly, thousands -&gt; millions)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Capital One (Domestic Card)</t>
+          <t>REVOLSL_bil_usd</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Revolving Consumer Credit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>usd_b</t>
+        </is>
+      </c>
       <c r="D5" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>7.23</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1316780.92</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1094486.034132231</v>
+      </c>
+      <c r="H5" t="n">
+        <v>139243.6365554812</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>-33518.6100000001</v>
       </c>
       <c r="K5" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M5" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Discover</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Q1 2025</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M6" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Synchrony</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M7" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>American Express (US Consumer + SMB)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M8" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>American Express (US Small Business)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M9" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Wells Fargo (Credit Card)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M10" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bread Financial (Comenity)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M11" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Barclays US Cards (Barclays Bank Delaware)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Q3 2025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1305.534</v>
-      </c>
-      <c r="M12" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>-2.482309239935831</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FRED REVOLSL (monthly, $ billions)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dictionary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +437,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>metric_key</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>fred_series_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>as_of</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>latest_value</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>latest_date</t>
+          <t>avg_10y</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>latest_value</t>
+          <t>std_10y</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>avg_10y</t>
+          <t>delta_1y_abs</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sd_10y</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>delta_1y_abs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>delta_1y_pct</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>source_note</t>
         </is>
       </c>
     </row>
@@ -503,46 +484,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Card 30+ Delinquency</t>
+          <t>DRCCLACBS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
+        <v>2.98</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.445853658536586</v>
       </c>
       <c r="F2" t="n">
-        <v>2.98</v>
+        <v>0.4557918631202351</v>
       </c>
       <c r="G2" t="n">
-        <v>2.457603305785124</v>
+        <v>-0.21</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4595974249785601</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-3.559870550161808</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>FRED DRCCLACBS (quarterly, %)</t>
-        </is>
+        <v>-6.583072100313481</v>
       </c>
     </row>
     <row r="3">
@@ -553,145 +516,214 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Net Charge-off Rate</t>
+          <t>CORCCACBS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
+        <v>4.17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.36170731707317</v>
       </c>
       <c r="F3" t="n">
-        <v>4.17</v>
+        <v>0.7931871567015041</v>
       </c>
       <c r="G3" t="n">
-        <v>3.378595041322315</v>
+        <v>-0.5099999999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8002853889563799</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.4199999999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-9.15032679738562</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>FRED CORCCACBS (quarterly, %)</t>
-        </is>
+        <v>-10.89743589743589</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>JTSJOL_mil</t>
+          <t>TDSP_pct</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Job Openings</t>
+          <t>TDSP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
+        <v>11.249194</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.13895068292683</v>
       </c>
       <c r="F4" t="n">
-        <v>7.67</v>
+        <v>0.6835108010593556</v>
       </c>
       <c r="G4" t="n">
-        <v>7.78185950413223</v>
+        <v>0.0900079999999992</v>
       </c>
       <c r="H4" t="n">
-        <v>1.798128243092805</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0.05499999999999972</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.7222586999343363</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>FRED JTSJOL (monthly, thousands -&gt; millions)</t>
-        </is>
+        <v>0.8065821288398611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>JTSJOL_mil</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JTSJOL</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7670</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7781.859504132231</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1798.128243092805</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7222586999343417</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>REVOLSL_bil_usd</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>REVOLSL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1316780.92</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1094486.034132231</v>
+      </c>
+      <c r="F6" t="n">
+        <v>139243.6365554812</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-33518.6100000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2.482309239935832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DRCCLACBS_pct</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FRED DRCCLACBS (quarterly) — Card Delinquency Rate, 30+ Days Past Due (%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CORCCACBS_pct</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FRED CORCCACBS (quarterly) — Net Charge-off Rate on Credit Card Loans (%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TDSP_pct</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FRED TDSP (quarterly) — Household Debt Service Payments as a Percent of Disposable Personal Income (%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JTSJOL_mil</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Revolving Consumer Credit</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>usd_b</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1316780.92</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1094486.034132231</v>
-      </c>
-      <c r="H5" t="n">
-        <v>139243.6365554812</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>-33518.6100000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-2.482309239935831</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>FRED REVOLSL (monthly, $ billions)</t>
+          <t>FRED JTSJOL (monthly) — Job Openings: Total Nonfarm (millions).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REVOLSL_bil_usd</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FRED REVOLSL (monthly) — Revolving Consumer Credit Outstanding ($ billions).</t>
         </is>
       </c>
     </row>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRED TDSP (quarterly) — Household Debt Service Payments as a Percent of Disposable Personal Income (%).</t>
+          <t>FRED TDSP (quarterly) — Household Debt Service Payments as % of Disposable Personal Income (%).</t>
         </is>
       </c>
     </row>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,38 @@
       </c>
       <c r="H6" t="n">
         <v>-2.482309239935832</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS_pct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.752439024390244</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.037150835721629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.298850574712641</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +759,18 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS_pct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FRED DRSFRMACBS (quarterly) — Delinquency Rate on Single-Family Residential Mortgages, All Commercial Banks (%).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="metrics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="dictionary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,42 +440,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>metric_key</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>fred_series_id</t>
+          <t>latest_date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>as_of</t>
+          <t>latest_value</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>latest_value</t>
+          <t>unit_mode</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>avg_10y</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>std_10y</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>delta_1y_abs</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>delta_1y_pct</t>
+          <t>source_note</t>
         </is>
       </c>
     </row>
@@ -482,30 +470,21 @@
           <t>DRCCLACBS_pct</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DRCCLACBS</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C2" t="n">
         <v>2.98</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.445853658536586</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4557918631202351</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-6.583072100313481</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>FRED DRCCLACBS (quarterly, %)</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -514,260 +493,158 @@
           <t>CORCCACBS_pct</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CORCCACBS</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C3" t="n">
         <v>4.17</v>
       </c>
-      <c r="E3" t="n">
-        <v>3.36170731707317</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7931871567015041</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.5099999999999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-10.89743589743589</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FRED CORCCACBS (quarterly, %)</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TDSP_pct</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TDSP</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>11.249194</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.13895068292683</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6835108010593556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0900079999999992</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8065821288398611</v>
+          <t>REVOLSL_bil_usd</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1316780.92</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FRED REVOLSL (monthly, $ billions)</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>JTSJOL_mil</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JTSJOL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>7670</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7781.859504132231</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1798.128243092805</v>
-      </c>
-      <c r="G5" t="n">
-        <v>55</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7222586999343417</v>
+          <t>TDSP_pct</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.249194</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FRED TDSP (quarterly, %)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>REVOLSL_bil_usd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>REVOLSL</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1316780.92</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1094486.034132231</v>
-      </c>
-      <c r="F6" t="n">
-        <v>139243.6365554812</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-33518.6100000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.482309239935832</v>
+          <t>JTSJOL_mil</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7670</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FRED JTSJOL (monthly, millions)</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>UNRATE_pct</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FRED UNRATE (monthly, %)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ICSA_k</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="C8" t="n">
+        <v>236</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FRED ICSA (weekly, level; stored here as thousands)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>DRSFRMACBS_pct</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DRSFRMACBS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B9" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.78</v>
       </c>
-      <c r="E7" t="n">
-        <v>2.752439024390244</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.037150835721629</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.298850574712641</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>field</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DRCCLACBS_pct</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FRED DRCCLACBS (quarterly) — Card Delinquency Rate, 30+ Days Past Due (%).</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORCCACBS_pct</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FRED CORCCACBS (quarterly) — Net Charge-off Rate on Credit Card Loans (%).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TDSP_pct</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FRED TDSP (quarterly) — Household Debt Service Payments as % of Disposable Personal Income (%).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>JTSJOL_mil</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FRED JTSJOL (monthly) — Job Openings: Total Nonfarm (millions).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REVOLSL_bil_usd</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FRED REVOLSL (monthly) — Revolving Consumer Credit Outstanding ($ billions).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DRSFRMACBS_pct</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FRED DRSFRMACBS (quarterly) — Delinquency Rate on Single-Family Residential Mortgages, All Commercial Banks (%).</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FRED DRSFRMACBS (quarterly, %)</t>
         </is>
       </c>
     </row>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,27 +436,72 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>metric_key</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>series_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>freq</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>latest_date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>latest_value</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>unit_mode</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>source_note</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>avg_10y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sd_10y</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>delta_1y_abs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>delta_1y_pct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -470,20 +511,57 @@
           <t>DRCCLACBS_pct</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DRCCLACBS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Card 30+ Delinquency</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2.98</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FRED DRCCLACBS (quarterly, %)</t>
+      <c r="I2" t="n">
+        <v>2.445853658536586</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4557918631202351</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-6.583072100313479</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Share of credit card balances 30+ days past due (all banks).</t>
         </is>
       </c>
     </row>
@@ -493,20 +571,57 @@
           <t>CORCCACBS_pct</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CORCCACBS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Net Charge-off Rate</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4.17</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FRED CORCCACBS (quarterly, %)</t>
+      <c r="I3" t="n">
+        <v>3.361707317073171</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7931871567015041</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.5099999999999998</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-10.89743589743589</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Share of card balances charged off as uncollectible (all banks).</t>
         </is>
       </c>
     </row>
@@ -516,20 +631,57 @@
           <t>REVOLSL_bil_usd</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>REVOLSL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Revolving Consumer Credit</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1316780.92</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>usd_b</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>FRED REVOLSL (monthly, $ billions)</t>
+      <c r="I4" t="n">
+        <v>1094486.034132231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>139243.6365554812</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-33518.6100000001</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.482309239935831</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Outstanding revolving consumer credit ($ billions).</t>
         </is>
       </c>
     </row>
@@ -539,20 +691,57 @@
           <t>TDSP_pct</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TDSP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Debt Service Burden</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>11.249194</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FRED TDSP (quarterly, %)</t>
+      <c r="I5" t="n">
+        <v>11.13895068292683</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6835108010593556</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0900079999999992</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8065821288398562</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Household debt service payments as a share of disposable income.</t>
         </is>
       </c>
     </row>
@@ -562,20 +751,57 @@
           <t>JTSJOL_mil</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>JTSJOL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Job Openings</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7670</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>mil</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>FRED JTSJOL (monthly, millions)</t>
+      <c r="I6" t="n">
+        <v>7781.859504132231</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1798.128243092805</v>
+      </c>
+      <c r="K6" t="n">
+        <v>55</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7222586999343401</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Total nonfarm job openings (labor demand proxy; lower is worse).</t>
         </is>
       </c>
     </row>
@@ -585,43 +811,117 @@
           <t>UNRATE_pct</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>45901</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UNRATE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4.4</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>FRED UNRATE (monthly, %)</t>
+      <c r="I7" t="n">
+        <v>4.600000000000002</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.711120651589922</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.317073170731724</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Unemployment rate (U-3).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICSA_k</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="C8" t="n">
-        <v>236</v>
+          <t>ICSA_thou</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ICSA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Initial Jobless Claims</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>thou</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRED ICSA (weekly, level; stored here as thousands)</t>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>236000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>364923.3716475096</v>
+      </c>
+      <c r="J8" t="n">
+        <v>549186.6660144761</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Weekly initial unemployment insurance claims (higher can signal stress).</t>
         </is>
       </c>
     </row>
@@ -631,20 +931,57 @@
           <t>DRSFRMACBS_pct</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>45839</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DRSFRMACBS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mortgage 30+ Delinquency</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1.78</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FRED DRSFRMACBS (quarterly, %)</t>
+      <c r="I9" t="n">
+        <v>2.752439024390244</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.037150835721629</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.298850574712646</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Share of residential mortgage balances 30+ days past due (all banks).</t>
         </is>
       </c>
     </row>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>236000</v>
+        <v>236</v>
       </c>
       <c r="I8" t="n">
-        <v>364923.3716475096</v>
+        <v>364.9233716475096</v>
       </c>
       <c r="J8" t="n">
-        <v>549186.6660144761</v>
+        <v>549.1866660144753</v>
       </c>
       <c r="K8" t="n">
-        <v>11000</v>
+        <v>11</v>
       </c>
       <c r="L8" t="n">
         <v>4.888888888888889</v>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,57 +451,77 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>units</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>freq</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>include_in_kpi</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>latest_date</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>latest_value</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>avg_10y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sd_10y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>delta_1y_abs</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>delta_1y_pct</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>prev_1y_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prev_1y_value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>summary</t>
         </is>
       </c>
     </row>
@@ -523,45 +543,61 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Share of credit-card balances that are 30+ days past due — an early consumer stress signal.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>pct</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>quarterly</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>2.98</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>2.445853658536586</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.4557918631202351</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>-0.21</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>-6.583072100313479</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Share of credit card balances 30+ days past due (all banks).</t>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Latest 2.98% (2025-07-01). -0.21pp YoY (-6.6%). +0.53pp vs 10y avg. Status: Tripwire.</t>
         </is>
       </c>
     </row>
@@ -583,405 +619,745 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Portion of card loans written off as uncollectible — tends to lag delinquencies but confirms credit deterioration.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>pct</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>quarterly</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>4.17</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>3.361707317073171</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.7931871567015041</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>-0.5099999999999998</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>-10.89743589743589</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Share of card balances charged off as uncollectible (all banks).</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Latest 4.17% (2025-07-01). -0.51pp YoY (-10.9%). +0.81pp vs 10y avg. Status: Tripwire.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>REVOLSL_bil_usd</t>
+          <t>TDSP_pct</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>REVOLSL</t>
+          <t>TDSP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Revolving Consumer Credit</t>
+          <t>Debt Service Burden</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>usd_b</t>
+          <t>Household debt payments as a share of disposable income — a 'squeeze' measure that can rise before delinquencies spike.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>monthly</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1316780.92</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1094486.034132231</v>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>139243.6365554812</v>
+        <v>11.249194</v>
       </c>
       <c r="K4" t="n">
-        <v>-33518.6100000001</v>
+        <v>11.13895068292683</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.482309239935831</v>
+        <v>0.6835108010593556</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Outstanding revolving consumer credit ($ billions).</t>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0900079999999992</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8065821288398562</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>11.159186</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Latest 11.25% (2025-04-01). +0.09pp YoY (+0.8%). +0.11pp vs 10y avg. Status: Healthy.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TDSP_pct</t>
+          <t>DRSFRMACBS_pct</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TDSP</t>
+          <t>DRSFRMACBS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Debt Service Burden</t>
+          <t>Mortgage 30+ Delinquency</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Share of single-family mortgage balances 30+ days past due — housing stress confirmation signal.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>pct</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>quarterly</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>11.249194</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.13895068292683</v>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
       </c>
       <c r="J5" t="n">
-        <v>0.6835108010593556</v>
+        <v>1.78</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0900079999999992</v>
+        <v>2.752439024390244</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8065821288398562</v>
+        <v>1.037150835721629</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Household debt service payments as a share of disposable income.</t>
+      <c r="N5" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.298850574712646</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Latest 1.78% (2025-07-01). +0.04pp YoY (+2.3%). -0.97pp vs 10y avg. Status: Healthy.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JTSJOL_mil</t>
+          <t>REVOLSL_bil_usd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JTSJOL</t>
+          <t>REVOLSL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Job Openings</t>
+          <t>Revolving Consumer Credit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>Outstanding revolving consumer credit (e.g., credit cards). Higher levels can reflect borrowing pressure.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>monthly</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>7670</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7781.859504132231</v>
-      </c>
       <c r="J6" t="n">
-        <v>1798.128243092805</v>
+        <v>1316.78092</v>
       </c>
       <c r="K6" t="n">
-        <v>55</v>
+        <v>1094.486034132231</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7222586999343401</v>
+        <v>139.2436365554812</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Total nonfarm job openings (labor demand proxy; lower is worse).</t>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>-33.51861000000008</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-2.48230923993583</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1350.29953</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Latest $1,317B (2025-10-01). -34B YoY (-2.5%). +222 vs 10y avg. Status: Tripwire.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UNRATE_pct</t>
+          <t>JTSJOL_mil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UNRATE</t>
+          <t>JTSJOL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unemployment Rate</t>
+          <t>Job Openings</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Labor demand proxy — weakens as hiring appetite drops (lower is worse for the labor market).</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>monthly</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.600000000000002</v>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
       </c>
       <c r="J7" t="n">
-        <v>1.711120651589922</v>
+        <v>7670</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3000000000000007</v>
+        <v>7781.859504132231</v>
       </c>
       <c r="L7" t="n">
-        <v>7.317073170731724</v>
+        <v>1798.128243092805</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Unemployment rate (U-3).</t>
+      <c r="N7" t="n">
+        <v>55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7222586999343401</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>7615</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Latest 7670M (2025-10-01). +55.00M YoY (+0.7%). -112 vs 10y avg. Status: Healthy.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICSA_thou</t>
+          <t>UNRATE_pct</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICSA</t>
+          <t>UNRATE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initial Jobless Claims</t>
+          <t>Unemployment Rate</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>thou</t>
+          <t>Broad unemployment measure — tends to lag, but persistent increases typically worsen credit performance.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>weekly</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-12-06</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>236</v>
-      </c>
-      <c r="I8" t="n">
-        <v>364.9233716475096</v>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>549.1866660144753</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>4.593333333333335</v>
       </c>
       <c r="L8" t="n">
-        <v>4.888888888888889</v>
+        <v>1.717446424847721</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Weekly initial unemployment insurance claims (higher can signal stress).</t>
+      <c r="N8" t="n">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="O8" t="n">
+        <v>9.523809523809511</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Latest 4.6% (2025-11-01). +0.40pp YoY (+9.5%). +0.01pp vs 10y avg. Status: Healthy.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DRSFRMACBS_pct</t>
+          <t>ICSA_thou</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DRSFRMACBS</t>
+          <t>ICSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mortgage 30+ Delinquency</t>
+          <t>Initial Jobless Claims</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Faster-turn labor stress signal — spikes can precede unemployment increases.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.752439024390244</v>
+          <t>thou</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>1.037150835721629</v>
+        <v>236</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04000000000000004</v>
+        <v>364.9233716475096</v>
       </c>
       <c r="L9" t="n">
-        <v>2.298850574712646</v>
+        <v>549.1866660144753</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Share of residential mortgage balances 30+ days past due (all banks).</t>
+      <c r="N9" t="n">
+        <v>-3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.255230125523012</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2024-12-07</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>239</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Latest 236K (2025-12-06). -3K YoY (-1.3%). -129 vs 10y avg. Status: Healthy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DSPIC96_bil_usd</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSPIC96</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Real Disposable Personal Income</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Inflation-adjusted household income available to spend — falling levels can pressure debt repayment capacity.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>18116.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16151.12148760331</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1356.433119424679</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>346.1999999999971</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.948238313102477</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>17769.9</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Latest $18,116B (2025-09-01). +346B YoY (+1.9%). +1,965 vs 10y avg. Status: Healthy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PERMIT_thou_units</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PERMIT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Building Permits</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>New privately-owned housing units authorized — a leading housing-cycle indicator.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>thou</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-08-01</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1330</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1440.851239669421</v>
+      </c>
+      <c r="L11" t="n">
+        <v>191.2128605393824</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>-146</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-9.89159891598916</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1476</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Latest 1,330K (2025-08-01). -146K YoY (-9.9%). -111 vs 10y avg. Status: Healthy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CSUSHPINSA_index</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CSUSHPINSA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Case-Shiller Home Price Index</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>National home price index — wealth/cycle effects; accelerations can support consumption, declines can tighten credit.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-09-01</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>328.938</v>
+      </c>
+      <c r="K12" t="n">
+        <v>247.6062396694215</v>
+      </c>
+      <c r="L12" t="n">
+        <v>54.97088013584557</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>4.194999999999993</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.291790739138332</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>324.743</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Latest 328.9 (2025-09-01). +4.19 YoY (+1.3%). +81 vs 10y avg. Status: Tripwire.</t>
         </is>
       </c>
     </row>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>series</t>
+          <t>series_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,42 +451,77 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>subtitle</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>definition</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>why</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>why_status</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>latest_date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>latest_value</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>avg10y</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sd10y</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_10y_avg</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>baseline_10y_sd</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>yoy_abs</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>yoy_pct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>yoy_pp</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>yoy_abs_unit</t>
         </is>
       </c>
     </row>
@@ -508,31 +543,66 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>FRED: DRCCLACBS (%; quarterly)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>tripwire</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Share of credit-card balances at least 30 days past due (all banks).</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Rising delinquency is an early sign of household strain.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10y avg 2.45%, σ 0.46%. ≥1σ worse than baseline (Tripwire).</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>2.98</v>
       </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>2.445853658536586</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>0.4557918631202351</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>-0.21</v>
       </c>
-      <c r="J2" t="n">
+      <c r="Q2" t="n">
         <v>-6.583072100313479</v>
       </c>
-      <c r="K2" t="n">
-        <v>-0.21</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -553,31 +623,66 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FRED: CORCCACBS (%; quarterly)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>tripwire</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Portion of credit-card loans written off as uncollectible (all banks).</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Charge-offs typically lag delinquencies but confirm credit deterioration.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10y avg 3.36%, σ 0.79%. ≥1σ worse than baseline (Tripwire).</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="M3" t="n">
         <v>4.17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
         <v>3.361707317073171</v>
       </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
         <v>0.7931871567015041</v>
       </c>
-      <c r="I3" t="n">
+      <c r="P3" t="n">
         <v>-0.5099999999999998</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Q3" t="n">
         <v>-10.89743589743589</v>
       </c>
-      <c r="K3" t="n">
-        <v>-0.5099999999999998</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -598,249 +703,455 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>FRED: TDSP (%; quarterly)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Household debt payments as a percent of disposable personal income.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Higher debt service leaves less buffer to absorb shocks.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10y avg 11.14%, σ 0.68%. Within ~1σ of baseline (Healthy).</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="M4" t="n">
         <v>11.249194</v>
       </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>11.13895068292683</v>
       </c>
-      <c r="H4" t="n">
+      <c r="O4" t="n">
         <v>0.6835108010593556</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>0.0900079999999992</v>
       </c>
-      <c r="J4" t="n">
+      <c r="Q4" t="n">
         <v>0.8065821288398562</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.0900079999999992</v>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>REVOLSL_bil_usd</t>
+          <t>DRSFRMACBS_pct</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>REVOLSL</t>
+          <t>DRSFRMACBS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Revolving Consumer Credit</t>
+          <t>Mortgage 30+ Delinquency</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tripwire</t>
+          <t>FRED: DRSFRMACBS (%; quarterly)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1316780.92</v>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>1094486.034132231</v>
-      </c>
-      <c r="H5" t="n">
-        <v>139243.6365554812</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-33518.6100000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-2.482309239935831</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Share of residential mortgages 30+ days delinquent (all commercial banks).</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mortgage delinquencies can jump in downturns and housing stress episodes.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>10y avg 2.75%, σ 1.04%. Within ~1σ of baseline (Healthy).</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2025-07-01</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.752439024390244</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.037150835721629</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.298850574712646</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JTSJOL_mil</t>
+          <t>REVOLSL_bil_usd</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JTSJOL</t>
+          <t>REVOLSL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Job Openings</t>
+          <t>Revolving Consumer Credit</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>FRED: REVOLSL ($B; monthly)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>usd_b</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Total revolving consumer credit outstanding (primarily credit cards).</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Rapid growth can signal households leaning on credit.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10y avg 1094486.03$B, σ 139243.64$B. ≥1σ worse than baseline (Tripwire).</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>7670</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7781.859504132231</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1798.128243092805</v>
-      </c>
-      <c r="I6" t="n">
-        <v>55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7222586999343401</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1316780.92</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1094486.034132231</v>
+      </c>
+      <c r="O6" t="n">
+        <v>139243.6365554812</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-33518.6100000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-2.482309239935831</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UNRATE_pct</t>
+          <t>JTSJOL_mil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UNRATE</t>
+          <t>JTSJOL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unemployment Rate</t>
+          <t>Job Openings</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FRED: JTSJOL (millions; monthly)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>mil</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.593333333333335</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.717446424847721</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3999999999999995</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.523809523809511</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3999999999999995</v>
-      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Job openings (JOLTS). Proxy for labor demand.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Falling openings often precede labor market cooling.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>10y avg 7.78M, σ 1.80M. Within ~1σ of baseline (Healthy).</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.78185950413223</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.798128243092805</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7222586999343363</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICSA_thou</t>
+          <t>UNRATE_pct</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ICSA</t>
+          <t>UNRATE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Initial Jobless Claims</t>
+          <t>Unemployment Rate</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>FRED: UNRATE (%; monthly)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2025-12-06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>236000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>364923.3716475096</v>
-      </c>
-      <c r="H8" t="n">
-        <v>549186.6660144761</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11000</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.888888888888889</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Headline unemployment rate (U-3).</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Rising unemployment tends to worsen credit performance.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10y avg 4.59%, σ 1.72%. Within ~1σ of baseline (Healthy).</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.593333333333335</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.717446424847721</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.523809523809511</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>pp</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DSPIC96_bil_usd</t>
+          <t>ICSA_thou</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DSPIC96</t>
+          <t>ICSA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Real Disposable Income</t>
+          <t>Initial Jobless Claims</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>FRED: ICSA (thousands; weekly)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>thou</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>thou</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>healthy</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2025-09-01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>18116.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16151.12148760331</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1356.433119424679</v>
-      </c>
-      <c r="I9" t="n">
-        <v>346.1999999999971</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.948238313102477</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Weekly initial claims for unemployment insurance.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Claims are a fast-turn labor stress signal; spikes can precede higher unemployment.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>10y avg 364841.00K, σ 549204.46K. Within ~1σ of baseline (Healthy).</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>224000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>364840.9961685824</v>
+      </c>
+      <c r="O9" t="n">
+        <v>549204.4643694169</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-15000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-6.276150627615062</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,87 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>series_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>subtitle</t>
+          <t>status</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>value</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>as_of</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>avg10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>delta_abs</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>why_status</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>latest_date</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>latest_value</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>baseline_10y_avg</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>baseline_10y_sd</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>yoy_abs</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>yoy_pct</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>yoy_abs_unit</t>
+          <t>delta_pct</t>
         </is>
       </c>
     </row>
@@ -533,76 +488,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Card 30+ Delinquency</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>DRCCLACBS</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Card 30+ Delinquency</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FRED: DRCCLACBS (%; quarterly)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Jul 2025</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Share of credit-card balances at least 30 days past due (all banks).</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Rising delinquency is an early sign of household strain.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10y avg 2.45%, σ 0.46%. ≥1σ worse than baseline (Tripwire).</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="N2" t="n">
         <v>2.445853658536586</v>
       </c>
-      <c r="O2" t="n">
-        <v>0.4557918631202351</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="H2" t="n">
         <v>-0.21</v>
       </c>
-      <c r="Q2" t="n">
-        <v>-6.583072100313479</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
+      <c r="I2" t="n">
+        <v>-0.06583072100313479</v>
       </c>
     </row>
     <row r="3">
@@ -613,76 +527,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Net Charge-off Rate</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>CORCCACBS</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Net Charge-off Rate</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FRED: CORCCACBS (%; quarterly)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.17</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Jul 2025</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Portion of credit-card loans written off as uncollectible (all banks).</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Charge-offs typically lag delinquencies but confirm credit deterioration.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>10y avg 3.36%, σ 0.79%. ≥1σ worse than baseline (Tripwire).</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="N3" t="n">
         <v>3.361707317073171</v>
       </c>
-      <c r="O3" t="n">
-        <v>0.7931871567015041</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="H3" t="n">
         <v>-0.5099999999999998</v>
       </c>
-      <c r="Q3" t="n">
-        <v>-10.89743589743589</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
+      <c r="I3" t="n">
+        <v>-0.1089743589743589</v>
       </c>
     </row>
     <row r="4">
@@ -693,76 +566,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Debt Service Burden</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>TDSP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Debt Service Burden</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRED: TDSP (%; quarterly)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.249194</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Apr 2025</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Household debt payments as a percent of disposable personal income.</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Higher debt service leaves less buffer to absorb shocks.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>10y avg 11.14%, σ 0.68%. Within ~1σ of baseline (Healthy).</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>11.249194</v>
-      </c>
-      <c r="N4" t="n">
         <v>11.13895068292683</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.6835108010593556</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="H4" t="n">
         <v>0.0900079999999992</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.8065821288398562</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
+      <c r="I4" t="n">
+        <v>0.008065821288398563</v>
       </c>
     </row>
     <row r="5">
@@ -773,76 +605,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Mortgage 30+ Delinquency</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>DRSFRMACBS</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mortgage 30+ Delinquency</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FRED: DRSFRMACBS (%; quarterly)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.78</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Jul 2025</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Share of residential mortgages 30+ days delinquent (all commercial banks).</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Mortgage delinquencies can jump in downturns and housing stress episodes.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>10y avg 2.75%, σ 1.04%. Within ~1σ of baseline (Healthy).</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N5" t="n">
         <v>2.752439024390244</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.037150835721629</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="H5" t="n">
         <v>0.04000000000000004</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.298850574712646</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0.02298850574712646</v>
       </c>
     </row>
     <row r="6">
@@ -853,73 +644,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Revolving Consumer Credit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>REVOLSL</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Revolving Consumer Credit</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FRED: REVOLSL ($B; monthly)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>usd_b</t>
-        </is>
+          <t>tripwire</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1316780.92</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>usd_b</t>
+          <t>Oct 2025</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>tripwire</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Total revolving consumer credit outstanding (primarily credit cards).</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Rapid growth can signal households leaning on credit.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>10y avg 1094486.03$B, σ 139243.64$B. ≥1σ worse than baseline (Tripwire).</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1316780.92</v>
-      </c>
-      <c r="N6" t="n">
         <v>1094486.034132231</v>
       </c>
-      <c r="O6" t="n">
-        <v>139243.6365554812</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="H6" t="n">
         <v>-33518.6100000001</v>
       </c>
-      <c r="Q6" t="n">
-        <v>-2.482309239935831</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>-0.02482309239935831</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -929,73 +683,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Job Openings</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>JTSJOL</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Job Openings</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FRED: JTSJOL (millions; monthly)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>mil</t>
-        </is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.67</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>mil</t>
+          <t>Oct 2025</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Job openings (JOLTS). Proxy for labor demand.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Falling openings often precede labor market cooling.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>10y avg 7.78M, σ 1.80M. Within ~1σ of baseline (Healthy).</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="N7" t="n">
         <v>7.78185950413223</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.798128243092805</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="H7" t="n">
         <v>0.05499999999999972</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0.7222586999343363</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.007222586999343364</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1005,76 +722,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Unemployment Rate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>UNRATE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Unemployment Rate</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FRED: UNRATE (%; monthly)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pct</t>
-        </is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>pct</t>
+          <t>Nov 2025</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Headline unemployment rate (U-3).</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Rising unemployment tends to worsen credit performance.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>10y avg 4.59%, σ 1.72%. Within ~1σ of baseline (Healthy).</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-11-01</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="N8" t="n">
         <v>4.593333333333335</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.717446424847721</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="H8" t="n">
         <v>0.3999999999999995</v>
       </c>
-      <c r="Q8" t="n">
-        <v>9.523809523809511</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>pp</t>
-        </is>
+      <c r="I8" t="n">
+        <v>0.09523809523809511</v>
       </c>
     </row>
     <row r="9">
@@ -1085,73 +761,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Initial Jobless Claims</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>ICSA</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Initial Jobless Claims</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FRED: ICSA (thousands; weekly)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>thou</t>
-        </is>
+          <t>healthy</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>224000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>thou</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>healthy</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Weekly initial claims for unemployment insurance.</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Claims are a fast-turn labor stress signal; spikes can precede higher unemployment.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>10y avg 364841.00K, σ 549204.46K. Within ~1σ of baseline (Healthy).</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2025-12-13</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>224000</v>
-      </c>
-      <c r="N9" t="n">
         <v>364840.9961685824</v>
       </c>
-      <c r="O9" t="n">
-        <v>549204.4643694169</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="H9" t="n">
         <v>-15000</v>
       </c>
-      <c r="Q9" t="n">
-        <v>-6.276150627615062</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>-0.06276150627615062</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>224000</v>
+        <v>214000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364840.9961685824</v>
+        <v>364752.8735632184</v>
       </c>
       <c r="H9" t="n">
-        <v>-15000</v>
+        <v>-8000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06276150627615062</v>
+        <v>-0.03603603603603604</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>214000</v>
+        <v>199000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364752.8735632184</v>
+        <v>364607.2796934866</v>
       </c>
       <c r="H9" t="n">
-        <v>-8000</v>
+        <v>-20000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03603603603603604</v>
+        <v>-0.091324200913242</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -697,21 +697,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.67</v>
+        <v>7.146</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oct 2025</t>
+          <t>Nov 2025</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.78185950413223</v>
+        <v>7.791380165289254</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05499999999999972</v>
+        <v>-0.8850000000000007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007222586999343364</v>
+        <v>-0.1101979828165858</v>
       </c>
     </row>
     <row r="8">
@@ -775,21 +775,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>199000</v>
+        <v>208000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364607.2796934866</v>
+        <v>364484.6743295019</v>
       </c>
       <c r="H9" t="n">
-        <v>-20000</v>
+        <v>-1000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.091324200913242</v>
+        <v>-0.004784688995215311</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -658,21 +658,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1316780.92</v>
+        <v>1313920.25</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oct 2025</t>
+          <t>Nov 2025</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1094486.034132231</v>
+        <v>1097707.535371901</v>
       </c>
       <c r="H6" t="n">
-        <v>-33518.6100000001</v>
+        <v>-25154.75</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02482309239935831</v>
+        <v>-0.01878516886656834</v>
       </c>
     </row>
     <row r="7">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -736,21 +736,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nov 2025</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.593333333333335</v>
+        <v>4.587499999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3999999999999995</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09523809523809511</v>
+        <v>0.07317073170731725</v>
       </c>
     </row>
     <row r="9">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -580,21 +580,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11.249194</v>
+        <v>11.256338</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Apr 2025</t>
+          <t>Jul 2025</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.13895068292683</v>
+        <v>11.09353892682927</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0900079999999992</v>
+        <v>0.1178030000000003</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008065821288398563</v>
+        <v>0.01057616643481394</v>
       </c>
     </row>
     <row r="5">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -775,7 +775,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>208000</v>
+        <v>198000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364484.6743295019</v>
+        <v>364318.0076628352</v>
       </c>
       <c r="H9" t="n">
-        <v>-1000</v>
+        <v>-7000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.004784688995215311</v>
+        <v>-0.03414634146341464</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,47 +422,47 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>key</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>series_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>as_of</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>avg10</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>delta_abs</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>delta_pct</t>
         </is>
@@ -775,7 +763,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>198000</v>
+        <v>200000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -783,13 +771,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364318.0076628352</v>
+        <v>364147.5095785441</v>
       </c>
       <c r="H9" t="n">
-        <v>-7000</v>
+        <v>-17000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.03414634146341464</v>
+        <v>-0.07834101382488479</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>200000</v>
+        <v>209000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364147.5095785441</v>
+        <v>364051.724137931</v>
       </c>
       <c r="H9" t="n">
-        <v>-17000</v>
+        <v>-13000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07834101382488479</v>
+        <v>-0.05855855855855856</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>209000</v>
+        <v>231000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>364051.724137931</v>
+        <v>363954.0229885057</v>
       </c>
       <c r="H9" t="n">
-        <v>-13000</v>
+        <v>21000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05855855855855856</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -685,21 +685,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7.146</v>
+        <v>6.542</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nov 2025</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7.791380165289254</v>
+        <v>7.796471074380164</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8850000000000007</v>
+        <v>-0.9660000000000002</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1101979828165858</v>
+        <v>-0.1286627597229622</v>
       </c>
     </row>
     <row r="8">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -646,21 +646,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1313920.25</v>
+        <v>1328559.61</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nov 2025</t>
+          <t>Dec 2025</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1097707.535371901</v>
+        <v>1101106.887024793</v>
       </c>
       <c r="H6" t="n">
-        <v>-25154.75</v>
+        <v>31594.05000000005</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01878516886656834</v>
+        <v>0.02435997606597977</v>
       </c>
     </row>
     <row r="7">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -724,21 +724,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dec 2025</t>
+          <t>Jan 2026</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.587499999999999</v>
+        <v>4.581666666666664</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07317073170731725</v>
+        <v>0.07499999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -763,21 +763,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>231000</v>
+        <v>227000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Jan 2026</t>
+          <t>Feb 2026</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>363954.0229885057</v>
+        <v>363881.2260536398</v>
       </c>
       <c r="H9" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1</v>
+        <v>0.02252252252252252</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>227000</v>
+        <v>206000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>363881.2260536398</v>
+        <v>363777.7777777778</v>
       </c>
       <c r="H9" t="n">
-        <v>5000</v>
+        <v>-9000</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02252252252252252</v>
+        <v>-0.04186046511627907</v>
       </c>
     </row>
   </sheetData>

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -490,21 +490,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jul 2025</t>
+          <t>Oct 2025</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.445853658536586</v>
+        <v>2.465121951219512</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.21</v>
+        <v>-0.1400000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06583072100313479</v>
+        <v>-0.04545454545454549</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tripwire</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.17</v>
+        <v>4.11</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jul 2025</t>
+          <t>Oct 2025</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.361707317073171</v>
+        <v>3.390243902439025</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5099999999999998</v>
+        <v>-0.4699999999999998</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1089743589743589</v>
+        <v>-0.1026200873362445</v>
       </c>
     </row>
     <row r="4">
@@ -611,17 +611,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Jul 2025</t>
+          <t>Oct 2025</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.752439024390244</v>
+        <v>2.664634146341463</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02298850574712646</v>
+        <v>0.005649717514124299</v>
       </c>
     </row>
     <row r="6">

--- a/macro_credit_metrics.xlsx
+++ b/macro_credit_metrics.xlsx
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>206000</v>
+        <v>212000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>363777.7777777778</v>
+        <v>363670.4980842912</v>
       </c>
       <c r="H9" t="n">
-        <v>-9000</v>
+        <v>-12000</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04186046511627907</v>
+        <v>-0.05357142857142857</v>
       </c>
     </row>
   </sheetData>
